--- a/2022/SAMSUNG/Others/ROI/ROI August 2022 Mugdho Corporation.xlsx
+++ b/2022/SAMSUNG/Others/ROI/ROI August 2022 Mugdho Corporation.xlsx
@@ -1065,7 +1065,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1439,6 +1439,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2504,7 +2505,7 @@
       </c>
       <c r="D13" s="71">
         <f>Details!D75</f>
-        <v>150576</v>
+        <v>174406</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="8"/>
@@ -2611,7 +2612,7 @@
       </c>
       <c r="I19" s="45">
         <f>Details!N18</f>
-        <v>154720</v>
+        <v>168638.02400000021</v>
       </c>
       <c r="J19" s="51"/>
       <c r="O19" s="18"/>
@@ -2627,7 +2628,7 @@
       </c>
       <c r="I20" s="45">
         <f>Details!N19</f>
-        <v>0</v>
+        <v>66724</v>
       </c>
       <c r="J20" s="51"/>
       <c r="O20" s="18"/>
@@ -2643,7 +2644,7 @@
       </c>
       <c r="I21" s="47">
         <f>I19+I20</f>
-        <v>154720</v>
+        <v>235362.02400000021</v>
       </c>
       <c r="J21" s="51"/>
       <c r="O21" s="18"/>
@@ -2828,7 +2829,7 @@
       </c>
       <c r="I31" s="45">
         <f>Details!N30</f>
-        <v>28600</v>
+        <v>52430</v>
       </c>
       <c r="J31" s="51"/>
       <c r="O31" s="18"/>
@@ -2844,7 +2845,7 @@
       </c>
       <c r="I32" s="47">
         <f>SUM(I24:I31)</f>
-        <v>150576</v>
+        <v>174406</v>
       </c>
       <c r="J32" s="51"/>
       <c r="O32" s="18"/>
@@ -2871,7 +2872,7 @@
       </c>
       <c r="I34" s="57">
         <f>I32</f>
-        <v>150576</v>
+        <v>174406</v>
       </c>
       <c r="J34" s="51"/>
       <c r="O34" s="18"/>
@@ -2908,7 +2909,7 @@
       </c>
       <c r="I36" s="57">
         <f>I21-I34</f>
-        <v>4144</v>
+        <v>60956.024000000209</v>
       </c>
       <c r="J36" s="51"/>
       <c r="O36" s="18"/>
@@ -2938,7 +2939,7 @@
       </c>
       <c r="D38" s="99">
         <f>Details!I23</f>
-        <v>154720</v>
+        <v>235362.02400000021</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="18"/>
@@ -2948,7 +2949,7 @@
       </c>
       <c r="I38" s="59">
         <f>I36/I16</f>
-        <v>2.6311638500436658E-4</v>
+        <v>3.8703013221813381E-3</v>
       </c>
       <c r="J38" s="107" t="s">
         <v>27</v>
@@ -2968,7 +2969,7 @@
       <c r="H39" s="110"/>
       <c r="I39" s="61">
         <f>(I36*12)/I16</f>
-        <v>3.157396620052399E-3</v>
+        <v>4.6443615866176055E-2</v>
       </c>
       <c r="J39" s="108" t="s">
         <v>28</v>
@@ -3523,8 +3524,8 @@
   </sheetPr>
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -3585,6 +3586,10 @@
       <c r="C6" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="H6" s="128">
+        <f>I13-I13*2.4%</f>
+        <v>7762372.9759999998</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
       <c r="C7" s="5" t="s">
@@ -3729,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="15">
-        <v>7776291</v>
+        <v>7762372.9759999998</v>
       </c>
       <c r="J14" s="41"/>
       <c r="K14" s="8"/>
@@ -3795,7 +3800,7 @@
       </c>
       <c r="I16" s="48">
         <f>I13-I14-I15</f>
-        <v>154720</v>
+        <v>168638.02400000021</v>
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="18"/>
@@ -3851,7 +3856,7 @@
         <v>42</v>
       </c>
       <c r="I18" s="52">
-        <v>0</v>
+        <v>66724</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="18"/>
@@ -3861,7 +3866,7 @@
       </c>
       <c r="N18" s="45">
         <f>I16</f>
-        <v>154720</v>
+        <v>168638.02400000021</v>
       </c>
       <c r="O18" s="51"/>
       <c r="P18" s="18"/>
@@ -3892,7 +3897,7 @@
       </c>
       <c r="N19" s="45">
         <f>I21</f>
-        <v>0</v>
+        <v>66724</v>
       </c>
       <c r="O19" s="51"/>
       <c r="P19" s="18"/>
@@ -3925,7 +3930,7 @@
       </c>
       <c r="N20" s="47">
         <f>N18+N19</f>
-        <v>154720</v>
+        <v>235362.02400000021</v>
       </c>
       <c r="O20" s="51"/>
       <c r="P20" s="18"/>
@@ -3950,7 +3955,7 @@
       </c>
       <c r="I21" s="48">
         <f>I18+I19+I20</f>
-        <v>0</v>
+        <v>66724</v>
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="18"/>
@@ -4005,7 +4010,7 @@
       </c>
       <c r="I23" s="47">
         <f>I16+I21</f>
-        <v>154720</v>
+        <v>235362.02400000021</v>
       </c>
       <c r="J23" s="49"/>
       <c r="K23" s="18"/>
@@ -4231,7 +4236,7 @@
       </c>
       <c r="N30" s="45">
         <f>D73</f>
-        <v>28600</v>
+        <v>52430</v>
       </c>
       <c r="O30" s="51"/>
       <c r="P30" s="18"/>
@@ -4266,7 +4271,7 @@
       </c>
       <c r="N31" s="47">
         <f>SUM(N23:N30)</f>
-        <v>150576</v>
+        <v>174406</v>
       </c>
       <c r="O31" s="51"/>
       <c r="P31" s="18"/>
@@ -4327,7 +4332,7 @@
       </c>
       <c r="N33" s="57">
         <f>N31</f>
-        <v>150576</v>
+        <v>174406</v>
       </c>
       <c r="O33" s="51"/>
       <c r="P33" s="18"/>
@@ -4388,7 +4393,7 @@
       </c>
       <c r="N35" s="57">
         <f>N20-N33</f>
-        <v>4144</v>
+        <v>60956.024000000209</v>
       </c>
       <c r="O35" s="51"/>
       <c r="P35" s="18"/>
@@ -4447,7 +4452,7 @@
       </c>
       <c r="N37" s="59">
         <f>N35/N15</f>
-        <v>2.6311638500436658E-4</v>
+        <v>3.8703013221813381E-3</v>
       </c>
       <c r="O37" s="60" t="s">
         <v>27</v>
@@ -4476,7 +4481,7 @@
       <c r="M38" s="110"/>
       <c r="N38" s="61">
         <f>(N35*12)/N15</f>
-        <v>3.157396620052399E-3</v>
+        <v>4.6443615866176055E-2</v>
       </c>
       <c r="O38" s="62" t="s">
         <v>28</v>
@@ -5333,7 +5338,9 @@
       <c r="C72" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="36"/>
+      <c r="D72" s="36">
+        <v>23830</v>
+      </c>
       <c r="E72" s="20"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
@@ -5355,7 +5362,7 @@
       </c>
       <c r="D73" s="24">
         <f>SUM(D69:D72)</f>
-        <v>28600</v>
+        <v>52430</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="18"/>
@@ -5396,7 +5403,7 @@
       </c>
       <c r="D75" s="71">
         <f>D57+D68+D73</f>
-        <v>150576</v>
+        <v>174406</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="18"/>
